--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1707BEF-48B4-0C4D-91A4-91440C19F85A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F872A-B518-8749-BD2A-E06085D0F3EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
-    <sheet name="structures" sheetId="2" r:id="rId2"/>
+    <sheet name="axis" sheetId="3" r:id="rId2"/>
+    <sheet name="AB" sheetId="4" r:id="rId3"/>
+    <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -128,6 +130,24 @@
   </si>
   <si>
     <t>Calcaneum LD [change to Dc]; Calcaneus Dc, mm</t>
+  </si>
+  <si>
+    <t>Trait</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Pattern name</t>
+  </si>
+  <si>
+    <t>calcaneus length</t>
+  </si>
+  <si>
+    <t>calcaneus breadth</t>
   </si>
 </sst>
 </file>
@@ -496,7 +516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -680,6 +700,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB0C01-8443-2A48-8408-BBDE1BFB448B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476F872A-B518-8749-BD2A-E06085D0F3EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157DEB0-D153-6942-8FD7-34592081CF69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="AB" sheetId="4" r:id="rId3"/>
     <sheet name="structures" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -96,9 +96,6 @@
     <t>calcaneus minimal breadth</t>
   </si>
   <si>
-    <t>calcaneus maximal breadth</t>
-  </si>
-  <si>
     <t>calcaneus maximal depth</t>
   </si>
   <si>
@@ -148,13 +145,94 @@
   </si>
   <si>
     <t>calcaneus breadth</t>
+  </si>
+  <si>
+    <t>proximal-distal</t>
+  </si>
+  <si>
+    <t>calcaneus</t>
+  </si>
+  <si>
+    <t>medial-lateral</t>
+  </si>
+  <si>
+    <t>anterior-posterior</t>
+  </si>
+  <si>
+    <t>distalmost part of' some calcaneus</t>
+  </si>
+  <si>
+    <t>proximalmost part of' some calcaneus</t>
+  </si>
+  <si>
+    <t>diaphysis of calcaneus</t>
+  </si>
+  <si>
+    <t>Point A</t>
+  </si>
+  <si>
+    <t>Point B</t>
+  </si>
+  <si>
+    <t>posterior facet of calcaneus</t>
+  </si>
+  <si>
+    <t>calcaneal tuberosity</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Text definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Subclass of</t>
+  </si>
+  <si>
+    <t>Equivalent to</t>
+  </si>
+  <si>
+    <t>Disjoint with</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>calcaneus proximal breadth</t>
+  </si>
+  <si>
+    <t>calcaneus proximal depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,6 +249,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -195,11 +279,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,7 +604,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -585,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -627,7 +714,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -638,7 +725,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -655,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -666,32 +753,32 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -701,36 +788,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -740,24 +913,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB0C01-8443-2A48-8408-BBDE1BFB448B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2157DEB0-D153-6942-8FD7-34592081CF69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED54EB-1FEF-1646-9302-E10E2DA4D14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>calcaneus proximal depth</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>breadth of diaphysis of calcaneus</t>
   </si>
 </sst>
 </file>
@@ -642,6 +648,9 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,6 +677,9 @@
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
@@ -691,6 +703,9 @@
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
@@ -702,7 +717,13 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="1">
@@ -724,6 +745,9 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
@@ -740,6 +764,9 @@
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -790,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,10 +980,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,6 +1042,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EED54EB-1FEF-1646-9302-E10E2DA4D14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9EFC2-F255-BE43-930B-01854CBFA1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -885,8 +885,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" t="s">
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
@@ -982,7 +982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9EFC2-F255-BE43-930B-01854CBFA1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22C5E4-698C-7D4B-A105-578D7580B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="2" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,13 +940,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB0C01-8443-2A48-8408-BBDE1BFB448B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -971,6 +976,51 @@
       </c>
       <c r="C2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF22C5E4-698C-7D4B-A105-578D7580B670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3460CB9-D1E8-1349-9B3E-17FCE5EE475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="2" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Eisenmann</t>
   </si>
   <si>
-    <t>calcaneus minimal breadth</t>
-  </si>
-  <si>
     <t>calcaneus maximal depth</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Calcaneum greatest breadth; Calcaneus GB, (greatest breadth, von den Driesch 1976), mm</t>
   </si>
   <si>
-    <t>Calcaneum LB [change to Bc]; Calcaneus Bc, mm</t>
-  </si>
-  <si>
     <t>Calcaneum LD [change to Dc]; Calcaneus Dc, mm</t>
   </si>
   <si>
@@ -147,27 +141,12 @@
     <t>calcaneus breadth</t>
   </si>
   <si>
-    <t>proximal-distal</t>
-  </si>
-  <si>
     <t>calcaneus</t>
   </si>
   <si>
     <t>medial-lateral</t>
   </si>
   <si>
-    <t>anterior-posterior</t>
-  </si>
-  <si>
-    <t>distalmost part of' some calcaneus</t>
-  </si>
-  <si>
-    <t>proximalmost part of' some calcaneus</t>
-  </si>
-  <si>
-    <t>diaphysis of calcaneus</t>
-  </si>
-  <si>
     <t>Point A</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>posterior facet of calcaneus</t>
   </si>
   <si>
-    <t>calcaneal tuberosity</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -225,13 +201,82 @@
     <t>calcaneus proximal breadth</t>
   </si>
   <si>
-    <t>calcaneus proximal depth</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>breadth of diaphysis of calcaneus</t>
+    <t>calcaneal tuber</t>
+  </si>
+  <si>
+    <t>anterior facet for talus of calcaneum</t>
+  </si>
+  <si>
+    <t>proximal facet of calcaneum</t>
+  </si>
+  <si>
+    <t>middle articular facet for talus of calcaneum</t>
+  </si>
+  <si>
+    <t>distal facet of calcaneum</t>
+  </si>
+  <si>
+    <t>corpus calcanei</t>
+  </si>
+  <si>
+    <t>calcaneal body</t>
+  </si>
+  <si>
+    <t>posterior facet for talus of calcaneus</t>
+  </si>
+  <si>
+    <t>lateral-most part of some posterior facet for talus of calcaneum</t>
+  </si>
+  <si>
+    <t>lateral-most part of some cuboid facet of calcaneum</t>
+  </si>
+  <si>
+    <t>lateral-most part of some middle facet for talus of calcaneum</t>
+  </si>
+  <si>
+    <t>trochlear process of calcaneus</t>
+  </si>
+  <si>
+    <t>calcaneal tubercle</t>
+  </si>
+  <si>
+    <t>breadth of calcaneal body</t>
+  </si>
+  <si>
+    <t>lateral tubercle of calcaneus</t>
+  </si>
+  <si>
+    <t>medial tubercle of calcaneus</t>
+  </si>
+  <si>
+    <t>calcaneus posterior/proximal length</t>
+  </si>
+  <si>
+    <t>calcaneus anterior/distal breadth</t>
+  </si>
+  <si>
+    <t>calcaneus posterior/proximal depth</t>
+  </si>
+  <si>
+    <t>calcanus anterior/distal depth</t>
+  </si>
+  <si>
+    <t>calcaneus posterior/proximal breadth</t>
+  </si>
+  <si>
+    <t>depth of calcaneal body</t>
+  </si>
+  <si>
+    <t>proximal-distal (animal); anterior-posterior (human)</t>
+  </si>
+  <si>
+    <t>anterior-poster (animal) ; proximal-distal (human)</t>
+  </si>
+  <si>
+    <t>calcaneus minimal breadth; Calcaneum LB [change to Bc]; Calcaneus Bc, mm</t>
   </si>
 </sst>
 </file>
@@ -607,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,13 +688,16 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -658,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -678,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
@@ -704,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
@@ -718,24 +766,27 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="X5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -746,10 +797,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -766,46 +817,36 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="X8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -818,120 +859,93 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="A4" t="s">
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>67</v>
+      <c r="A6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,88 +954,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DB0C01-8443-2A48-8408-BBDE1BFB448B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>38</v>
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1030,71 +1035,106 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="6" t="s">
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="6" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>45</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3460CB9-D1E8-1349-9B3E-17FCE5EE475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868971D-B240-5C4F-93D7-0534D2E143D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -655,7 +655,7 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,6 +785,9 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>56</v>
       </c>
@@ -839,6 +842,9 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>79</v>
       </c>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9868971D-B240-5C4F-93D7-0534D2E143D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97409D2-9758-5543-882F-A455559EDFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -66,9 +66,6 @@
     <t>GB</t>
   </si>
   <si>
-    <t>calcaneus width ML</t>
-  </si>
-  <si>
     <t>calcaneus distal breadth</t>
   </si>
   <si>
@@ -93,18 +90,12 @@
     <t>Eisenmann</t>
   </si>
   <si>
-    <t>calcaneus maximal depth</t>
-  </si>
-  <si>
     <t>calcanus distal depth</t>
   </si>
   <si>
     <t>CALD</t>
   </si>
   <si>
-    <t>calcaneus lateral depth</t>
-  </si>
-  <si>
     <t>Purdue 1987</t>
   </si>
   <si>
@@ -201,6 +192,9 @@
     <t>calcaneus proximal breadth</t>
   </si>
   <si>
+    <t>calcaneus proximal depth</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -277,6 +271,24 @@
   </si>
   <si>
     <t>calcaneus minimal breadth; Calcaneum LB [change to Bc]; Calcaneus Bc, mm</t>
+  </si>
+  <si>
+    <t>calcaneus distal width ML (non-plantigrade); calcaneus anteiror width ML (plantigrade); calcaneus anterior breadth (plantigrade)</t>
+  </si>
+  <si>
+    <t>calcaneus posterior length (plantigrade)</t>
+  </si>
+  <si>
+    <t>calcaneus posterior breadth (plantigrade); calcaneus posterior width ML (plantigrade); calcaneus proximal width ML</t>
+  </si>
+  <si>
+    <t>calcaneus proximal width AP (non-plantigrade); calcaneus posterior depth (plantigrade); calcaneus posterior width PD (plantigrade)</t>
+  </si>
+  <si>
+    <t>calcaneus lateral depth; calcaneus distal width AP (non-plantigrade); calcaneus anterior depth (plantigrade); calcneus anterior width PD (plantigrade)</t>
+  </si>
+  <si>
+    <t>width AP of calcaneal body (non-plantigrade); width PD of calcaneal body (plantigrade)</t>
   </si>
 </sst>
 </file>
@@ -655,12 +667,14 @@
   <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
@@ -689,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -697,16 +711,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -715,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -726,25 +740,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -752,58 +766,67 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -812,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -820,13 +843,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -835,24 +858,27 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -876,71 +902,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>79</v>
       </c>
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -963,7 +989,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,60 +1001,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1051,96 +1077,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97409D2-9758-5543-882F-A455559EDFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEF599B-01A4-0843-85A4-4008036F65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEF599B-01A4-0843-85A4-4008036F65CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BE577E-46E3-6A45-82FC-8944459BD98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -96,9 +96,6 @@
     <t>CALD</t>
   </si>
   <si>
-    <t>Purdue 1987</t>
-  </si>
-  <si>
     <t>Bc</t>
   </si>
   <si>
@@ -289,6 +286,15 @@
   </si>
   <si>
     <t>width AP of calcaneal body (non-plantigrade); width PD of calcaneal body (plantigrade)</t>
+  </si>
+  <si>
+    <t>Cantryll 2017</t>
+  </si>
+  <si>
+    <t>calcaneus width</t>
+  </si>
+  <si>
+    <t>width and ('part of' some calcaneus)</t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -711,16 +717,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -740,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -766,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -782,34 +788,40 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -819,14 +831,17 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -843,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -865,24 +880,39 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -902,71 +932,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1001,60 +1031,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,96 +1107,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BE577E-46E3-6A45-82FC-8944459BD98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053AF441-8F0B-2E4D-B714-2E5504D6DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="280" yWindow="660" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -261,9 +261,6 @@
     <t>depth of calcaneal body</t>
   </si>
   <si>
-    <t>proximal-distal (animal); anterior-posterior (human)</t>
-  </si>
-  <si>
     <t>anterior-poster (animal) ; proximal-distal (human)</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>width and ('part of' some calcaneus)</t>
+  </si>
+  <si>
+    <t>proximal-distal (plantigrade); anterior-posterior (human)</t>
   </si>
 </sst>
 </file>
@@ -672,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -821,7 +821,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -864,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -890,7 +890,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -904,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,7 +949,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1099,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053AF441-8F0B-2E4D-B714-2E5504D6DF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94053EC0-DB5F-2C41-8BFD-FB5095708E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="660" windowWidth="14400" windowHeight="16640" activeTab="1" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -261,6 +261,9 @@
     <t>depth of calcaneal body</t>
   </si>
   <si>
+    <t>proximal-distal (animal); anterior-posterior (human)</t>
+  </si>
+  <si>
     <t>anterior-poster (animal) ; proximal-distal (human)</t>
   </si>
   <si>
@@ -292,9 +295,6 @@
   </si>
   <si>
     <t>width and ('part of' some calcaneus)</t>
-  </si>
-  <si>
-    <t>proximal-distal (plantigrade); anterior-posterior (human)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>25</v>
@@ -778,7 +778,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -821,7 +821,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -841,7 +841,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -864,7 +864,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -890,7 +890,7 @@
         <v>76</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
@@ -904,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44122A0-5647-0748-B10B-132650BF5C67}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -949,7 +949,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -993,7 +993,7 @@
         <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>61</v>
@@ -1099,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94053EC0-DB5F-2C41-8BFD-FB5095708E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F0E71-76A2-4D41-81FB-4F92160095EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16640" activeTab="3" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Eisenmann</t>
   </si>
   <si>
-    <t>calcanus distal depth</t>
-  </si>
-  <si>
     <t>CALD</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>width and ('part of' some calcaneus)</t>
+  </si>
+  <si>
+    <t>calcaneus distal depth</t>
   </si>
 </sst>
 </file>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -717,16 +717,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -746,13 +746,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
@@ -772,13 +772,13 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>19</v>
@@ -815,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -835,13 +835,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -858,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>19</v>
@@ -884,19 +884,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
@@ -904,10 +904,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -932,71 +932,71 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,60 +1031,60 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1099,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1107,96 +1107,96 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689F0E71-76A2-4D41-81FB-4F92160095EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940F6BEA-8FAF-704B-B797-1D05DAAABDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940F6BEA-8FAF-704B-B797-1D05DAAABDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F524CB-66BE-4D4A-AD6A-DD65ECD2DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8320" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8520" activeTab="3" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
   <sheets>
     <sheet name="trait" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -225,9 +225,6 @@
     <t>lateral-most part of some middle facet for talus of calcaneum</t>
   </si>
   <si>
-    <t>trochlear process of calcaneus</t>
-  </si>
-  <si>
     <t>calcaneal tubercle</t>
   </si>
   <si>
@@ -295,13 +292,55 @@
   </si>
   <si>
     <t>calcaneus distal depth</t>
+  </si>
+  <si>
+    <t>part of' some calcaneus; facet</t>
+  </si>
+  <si>
+    <t>part of' some calcaneus; 'zone of bone organ'</t>
+  </si>
+  <si>
+    <t>trochlear process of calcaneus; calcaneal tubercle</t>
+  </si>
+  <si>
+    <t>tubercle of calcaneus</t>
+  </si>
+  <si>
+    <t>tubercle and 'part of' some 'calcaneus'</t>
+  </si>
+  <si>
+    <t>Posterior-most facet on the proximal surface of the calcaneus for the articulation of the talus bone.</t>
+  </si>
+  <si>
+    <t>Middle facet on the proximal surface of the calcaneus for the articulation of the talus bone.</t>
+  </si>
+  <si>
+    <t>Anterior-most facet on the proximal surface of the calcaneus for the articulation of the talus bone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The calcaneus body is the part of the bone not used for articulation with other bones. </t>
+  </si>
+  <si>
+    <t>A raised projection on the calcaneus.</t>
+  </si>
+  <si>
+    <t>A raised projection on the lateral side of a calcaneus.</t>
+  </si>
+  <si>
+    <t>A raised projection on the medial side of a calcaneus.</t>
+  </si>
+  <si>
+    <t>can't find facet! ugh!</t>
+  </si>
+  <si>
+    <t>on fovt-calcaneus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +366,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -356,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D298D69E-EE92-294E-86A4-B9B4F404AE90}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -723,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>24</v>
@@ -778,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -795,10 +842,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -821,7 +868,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -841,7 +888,7 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -861,10 +908,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -887,10 +934,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>25</v>
@@ -904,10 +951,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -949,7 +996,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -968,7 +1015,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -979,7 +1026,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -990,10 +1037,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>60</v>
@@ -1019,7 +1066,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,7 +1092,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
@@ -1056,7 +1103,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -1067,24 +1114,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1099,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBF441B-1323-6641-BD3F-BB492990A299}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1153,53 +1200,117 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
       <c r="B2" t="s">
         <v>61</v>
       </c>
       <c r="C2" t="s">
         <v>56</v>
       </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
+      <c r="E3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
+      <c r="E4" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
       </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
       <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>69</v>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/terms/calcaneusTerms.xlsx
+++ b/terms/calcaneusTerms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabalk/GitHub/futres/fovt/terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F524CB-66BE-4D4A-AD6A-DD65ECD2DB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF713D0-D54B-F442-97FC-CB43FCC60B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="8520" activeTab="3" xr2:uid="{DB14F8C6-EED1-CF49-9D06-87D4724512D6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>FOVT STATUS</t>
   </si>
@@ -330,10 +330,7 @@
     <t>A raised projection on the medial side of a calcaneus.</t>
   </si>
   <si>
-    <t>can't find facet! ugh!</t>
-  </si>
-  <si>
-    <t>on fovt-calcaneus</t>
+    <t>on fovt-calcaneus; made pull request</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1144,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1246,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -1266,7 +1263,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -1283,7 +1280,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -1297,7 +1294,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
